--- a/biology/Botanique/Aeonium_gorgoneum/Aeonium_gorgoneum.xlsx
+++ b/biology/Botanique/Aeonium_gorgoneum/Aeonium_gorgoneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeonium gorgoneum est une espèce de plantes à fleurs de la famille des Crassulaceae. C'est une espèce endémique du Cap-Vert, que l'on trouve sur les îles de Santo Antão, São Vicente et São Nicolau[1].
-Localement elle est connue sous le nom de « salão »[1].
-C'est une espèce de plantes médicinales utilisée pour traiter la toux et la bronchite[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeonium gorgoneum est une espèce de plantes à fleurs de la famille des Crassulaceae. C'est une espèce endémique du Cap-Vert, que l'on trouve sur les îles de Santo Antão, São Vicente et São Nicolau.
+Localement elle est connue sous le nom de « salão ».
+C'est une espèce de plantes médicinales utilisée pour traiter la toux et la bronchite.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Numismatique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium gorgoneum figure sur la pièce de 100 escudos frappée par le Cap-Vert en 1994.
 </t>
@@ -544,9 +558,11 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeonium gorgoneum est reproduite sur un timbre émis par le Cap-Vert en 2002[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeonium gorgoneum est reproduite sur un timbre émis par le Cap-Vert en 2002.
 </t>
         </is>
       </c>
